--- a/academicSchedule.xlsx
+++ b/academicSchedule.xlsx
@@ -1,29 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Administrative\Student_Information\Academic_Advising_Student_Folders\Undergraduate Student Folders\MacDougall, Skyler_2181\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laptopStorage\rit2195Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F08047-9FC8-43C9-A41E-65784E0B7707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="375" windowWidth="22755" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="10575" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ryan" sheetId="1" r:id="rId1"/>
+    <sheet name="Skyler" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Ryan!$B$1:$N$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Skyler!$B$1:$N$44</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="159">
   <si>
     <t>EEET</t>
   </si>
@@ -424,11 +435,140 @@
   <si>
     <t>summer</t>
   </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Number Grade</t>
+  </si>
+  <si>
+    <t>Letter Grade</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+  </si>
+  <si>
+    <t>CPET-141</t>
+  </si>
+  <si>
+    <t>CPET-142</t>
+  </si>
+  <si>
+    <t>EEET-111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B </t>
+  </si>
+  <si>
+    <t>EEET-112</t>
+  </si>
+  <si>
+    <t>MATH-181</t>
+  </si>
+  <si>
+    <t>STSO-140</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C-</t>
+  </si>
+  <si>
+    <t>CPET-121</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>EEET-121</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>EEET-122</t>
+  </si>
+  <si>
+    <t>FNRT-110</t>
+  </si>
+  <si>
+    <t>MATH-182A</t>
+  </si>
+  <si>
+    <t>MATH211</t>
+  </si>
+  <si>
+    <t>FNRT-240</t>
+  </si>
+  <si>
+    <t>EEET-212</t>
+  </si>
+  <si>
+    <t>EEET-211</t>
+  </si>
+  <si>
+    <t>CPET-233</t>
+  </si>
+  <si>
+    <t>CHMG-145</t>
+  </si>
+  <si>
+    <t>CHMG-141</t>
+  </si>
+  <si>
+    <t>CPET-251-03</t>
+  </si>
+  <si>
+    <t>CPET-252-03</t>
+  </si>
+  <si>
+    <t>EEET-221-01</t>
+  </si>
+  <si>
+    <t>EEET-222-03</t>
+  </si>
+  <si>
+    <t>EEET-241-01</t>
+  </si>
+  <si>
+    <t>EEET-242-04</t>
+  </si>
+  <si>
+    <t>MLGR-201-02</t>
+  </si>
+  <si>
+    <t>UWRT-150-38</t>
+  </si>
+  <si>
+    <t>EEET-299-02</t>
+  </si>
+  <si>
+    <t>EEET-313-01</t>
+  </si>
+  <si>
+    <t>EEET-331-02</t>
+  </si>
+  <si>
+    <t>EEET-332-01</t>
+  </si>
+  <si>
+    <t>PHYS-111-02</t>
+  </si>
+  <si>
+    <t>STAT-145-02</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1011,7 +1151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1342,72 +1482,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,7 +1503,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,10 +1551,80 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1565,6 +1715,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1600,6 +1767,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1775,7 +1959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q4703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1797,10 +1981,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="142"/>
+      <c r="C1" s="120"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
@@ -1818,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="62"/>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="153"/>
-      <c r="F2" s="154" t="s">
+      <c r="E2" s="133"/>
+      <c r="F2" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
       <c r="M2" s="63"/>
       <c r="N2" s="64">
         <v>2015</v>
@@ -1858,12 +2042,12 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
       <c r="H4" s="35"/>
       <c r="I4" s="2" t="s">
         <v>2</v>
@@ -1885,12 +2069,12 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="151"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -1900,18 +2084,21 @@
       <c r="N5" s="34"/>
     </row>
     <row r="6" spans="2:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="113"/>
+      <c r="B6" s="113" t="str">
+        <f>Sheet3!D31</f>
+        <v xml:space="preserve">B </v>
+      </c>
       <c r="C6" s="114">
         <v>195</v>
       </c>
       <c r="D6" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="140" t="s">
+      <c r="E6" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="141"/>
-      <c r="G6" s="149"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="15"/>
       <c r="I6" s="41" t="s">
         <v>100</v>
@@ -1938,11 +2125,11 @@
       <c r="D7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="141"/>
-      <c r="G7" s="149"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="128"/>
       <c r="H7" s="15"/>
       <c r="I7" s="28" t="s">
         <v>100</v>
@@ -1987,14 +2174,14 @@
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="145"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="123"/>
       <c r="H9" s="15"/>
       <c r="I9" s="28" t="s">
         <v>100</v>
@@ -2023,10 +2210,10 @@
       <c r="D10" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="130"/>
+      <c r="F10" s="151"/>
       <c r="G10" s="11" t="s">
         <v>32</v>
       </c>
@@ -2060,10 +2247,10 @@
       <c r="D11" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="131" t="s">
+      <c r="E11" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="131"/>
+      <c r="F11" s="152"/>
       <c r="G11" s="11">
         <v>3</v>
       </c>
@@ -2095,10 +2282,10 @@
       <c r="D12" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="131" t="s">
+      <c r="E12" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="131"/>
+      <c r="F12" s="152"/>
       <c r="G12" s="11">
         <v>3</v>
       </c>
@@ -2121,17 +2308,20 @@
       <c r="N12" s="69"/>
     </row>
     <row r="13" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
+      <c r="B13" s="9" t="str">
+        <f>Sheet3!D30</f>
+        <v>B+</v>
+      </c>
       <c r="C13" s="106">
         <v>195</v>
       </c>
       <c r="D13" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="131" t="s">
+      <c r="E13" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="131"/>
+      <c r="F13" s="152"/>
       <c r="G13" s="11">
         <v>4</v>
       </c>
@@ -2163,10 +2353,10 @@
       <c r="D14" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="132" t="s">
+      <c r="E14" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="132"/>
+      <c r="F14" s="153"/>
       <c r="G14" s="14">
         <v>3</v>
       </c>
@@ -2191,12 +2381,12 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="146"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
       <c r="H15" s="15"/>
       <c r="I15" s="28" t="s">
         <v>112</v>
@@ -2216,14 +2406,14 @@
       <c r="N15" s="11"/>
     </row>
     <row r="16" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="135"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="145"/>
       <c r="H16" s="15"/>
       <c r="I16" s="28" t="s">
         <v>111</v>
@@ -2290,8 +2480,8 @@
         <v>211</v>
       </c>
       <c r="D18" s="74"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="137"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="147"/>
       <c r="G18" s="11">
         <v>3</v>
       </c>
@@ -2322,8 +2512,8 @@
         <v>215</v>
       </c>
       <c r="D19" s="74"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="137"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
       <c r="G19" s="11">
         <v>3</v>
       </c>
@@ -2354,8 +2544,8 @@
         <v>225</v>
       </c>
       <c r="D20" s="82"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="139"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="149"/>
       <c r="G20" s="14">
         <v>3</v>
       </c>
@@ -2383,12 +2573,15 @@
     <row r="21" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="52"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="68"/>
+      <c r="I21" s="68" t="str">
+        <f>Sheet3!D26</f>
+        <v>B-</v>
+      </c>
       <c r="J21" s="65">
         <v>195</v>
       </c>
@@ -2415,15 +2608,18 @@
       <c r="D22" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="129" t="s">
+      <c r="E22" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="130"/>
+      <c r="F22" s="151"/>
       <c r="G22" s="11" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="15"/>
-      <c r="I22" s="68"/>
+      <c r="I22" s="68" t="str">
+        <f>Sheet3!D27</f>
+        <v>A-</v>
+      </c>
       <c r="J22" s="65">
         <v>195</v>
       </c>
@@ -2447,15 +2643,18 @@
         <v>215</v>
       </c>
       <c r="D23" s="74"/>
-      <c r="E23" s="131" t="s">
+      <c r="E23" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="131"/>
+      <c r="F23" s="152"/>
       <c r="G23" s="11" t="s">
         <v>98</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="68"/>
+      <c r="I23" s="68" t="str">
+        <f>Sheet3!D28</f>
+        <v>B-</v>
+      </c>
       <c r="J23" s="65">
         <v>195</v>
       </c>
@@ -2479,15 +2678,18 @@
         <v>225</v>
       </c>
       <c r="D24" s="74"/>
-      <c r="E24" s="131" t="s">
+      <c r="E24" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="131"/>
+      <c r="F24" s="152"/>
       <c r="G24" s="11">
         <v>3</v>
       </c>
       <c r="H24" s="15"/>
-      <c r="I24" s="68"/>
+      <c r="I24" s="68" t="str">
+        <f>Sheet3!D29</f>
+        <v>B+</v>
+      </c>
       <c r="J24" s="65">
         <v>195</v>
       </c>
@@ -2511,15 +2713,18 @@
         <v>115</v>
       </c>
       <c r="D25" s="74"/>
-      <c r="E25" s="131" t="s">
+      <c r="E25" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="131"/>
+      <c r="F25" s="152"/>
       <c r="G25" s="11">
         <v>3</v>
       </c>
       <c r="H25" s="15"/>
-      <c r="I25" s="68"/>
+      <c r="I25" s="68" t="str">
+        <f>Sheet3!D24</f>
+        <v>B+</v>
+      </c>
       <c r="J25" s="65">
         <v>195</v>
       </c>
@@ -2543,15 +2748,18 @@
         <v>113</v>
       </c>
       <c r="D26" s="82"/>
-      <c r="E26" s="132" t="s">
+      <c r="E26" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="132"/>
+      <c r="F26" s="153"/>
       <c r="G26" s="14">
         <v>3</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="68"/>
+      <c r="I26" s="68" t="str">
+        <f>Sheet3!D25</f>
+        <v>A-</v>
+      </c>
       <c r="J26" s="65">
         <v>195</v>
       </c>
@@ -2570,14 +2778,17 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="2:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="151"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="28"/>
+      <c r="I27" s="28">
+        <f>Sheet3!D35</f>
+        <v>0</v>
+      </c>
       <c r="J27" s="16">
         <v>201</v>
       </c>
@@ -2605,13 +2816,16 @@
       <c r="D28" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="161" t="s">
+      <c r="E28" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="161"/>
-      <c r="G28" s="162"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="142"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="28"/>
+      <c r="I28" s="28">
+        <f>Sheet3!D34</f>
+        <v>0</v>
+      </c>
       <c r="J28" s="16">
         <v>201</v>
       </c>
@@ -2631,13 +2845,16 @@
       <c r="B29" s="9"/>
       <c r="C29" s="83"/>
       <c r="D29" s="83"/>
-      <c r="E29" s="157" t="s">
+      <c r="E29" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="157"/>
-      <c r="G29" s="158"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="138"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="28"/>
+      <c r="I29" s="28">
+        <f>Sheet3!D33</f>
+        <v>0</v>
+      </c>
       <c r="J29" s="16">
         <v>201</v>
       </c>
@@ -2657,13 +2874,16 @@
       <c r="B30" s="12"/>
       <c r="C30" s="84"/>
       <c r="D30" s="86"/>
-      <c r="E30" s="159" t="s">
+      <c r="E30" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="159"/>
-      <c r="G30" s="160"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="140"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="85"/>
+      <c r="I30" s="85">
+        <f>Sheet3!D38</f>
+        <v>0</v>
+      </c>
       <c r="J30" s="16">
         <v>201</v>
       </c>
@@ -2687,7 +2907,10 @@
       <c r="F31" s="79"/>
       <c r="G31" s="79"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="28"/>
+      <c r="I31" s="28">
+        <f>Sheet3!D37</f>
+        <v>0</v>
+      </c>
       <c r="J31" s="16">
         <v>201</v>
       </c>
@@ -2713,11 +2936,11 @@
       <c r="D32" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="155" t="s">
+      <c r="E32" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="155"/>
-      <c r="G32" s="156"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="136"/>
       <c r="H32" s="15"/>
       <c r="I32" s="99"/>
       <c r="J32" s="65">
@@ -2844,12 +3067,12 @@
       <c r="N36" s="92"/>
     </row>
     <row r="37" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="146"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
       <c r="H37" s="37"/>
       <c r="I37" s="28"/>
       <c r="J37" s="16">
@@ -2867,14 +3090,14 @@
       <c r="N37" s="42"/>
     </row>
     <row r="38" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="148" t="s">
+      <c r="B38" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="141"/>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="149"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="128"/>
       <c r="H38" s="37"/>
       <c r="I38" s="28"/>
       <c r="J38" s="16">
@@ -2999,51 +3222,51 @@
       <c r="O44" s="72"/>
     </row>
     <row r="45" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="120" t="s">
+      <c r="B45" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="121"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="121"/>
-      <c r="N45" s="122"/>
+      <c r="C45" s="155"/>
+      <c r="D45" s="155"/>
+      <c r="E45" s="155"/>
+      <c r="F45" s="155"/>
+      <c r="G45" s="155"/>
+      <c r="H45" s="155"/>
+      <c r="I45" s="155"/>
+      <c r="J45" s="155"/>
+      <c r="K45" s="155"/>
+      <c r="L45" s="155"/>
+      <c r="M45" s="155"/>
+      <c r="N45" s="156"/>
     </row>
     <row r="46" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="123"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="125"/>
+      <c r="B46" s="157"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="158"/>
+      <c r="H46" s="158"/>
+      <c r="I46" s="158"/>
+      <c r="J46" s="158"/>
+      <c r="K46" s="158"/>
+      <c r="L46" s="158"/>
+      <c r="M46" s="158"/>
+      <c r="N46" s="159"/>
     </row>
     <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="126"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="127"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="127"/>
-      <c r="K47" s="127"/>
-      <c r="L47" s="127"/>
-      <c r="M47" s="127"/>
-      <c r="N47" s="128"/>
+      <c r="B47" s="160"/>
+      <c r="C47" s="161"/>
+      <c r="D47" s="161"/>
+      <c r="E47" s="161"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="161"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="161"/>
+      <c r="J47" s="161"/>
+      <c r="K47" s="161"/>
+      <c r="L47" s="161"/>
+      <c r="M47" s="161"/>
+      <c r="N47" s="162"/>
     </row>
     <row r="48" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="36"/>
@@ -68202,10 +68425,26 @@
       <c r="G4703" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="I20:N33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I20:N33">
     <sortCondition ref="J20:J33"/>
   </sortState>
   <mergeCells count="32">
+    <mergeCell ref="B45:N47"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B37:G37"/>
@@ -68222,22 +68461,6 @@
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B45:N47"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.2" footer="0.2"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -68245,13 +68468,747 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="163">
+        <v>2181</v>
+      </c>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="165"/>
+      <c r="F2" s="166">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="166">
+        <f>F2</f>
+        <v>4</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(C3&gt;=$F$2,$G$2,IF(C3&gt;=$F$3,$G$3,IF(C3&gt;=$F$4,$G$4,IF(C3&gt;=$F$5,$G$5,IF(C3&gt;=$F$6,$G$6,IF(C3&gt;=$F$7,$G$7,IF(C3&gt;=$F$8,$G$8,IF(C3&gt;=$F$9,$G$9,IF(C3&gt;=$F$10,$G$10,IF(C3&gt;$F$11,$G$11,IF(C3=0,$H$11)))))))))))</f>
+        <v xml:space="preserve">A </v>
+      </c>
+      <c r="F3" s="166">
+        <v>3.67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="166">
+        <f>F2</f>
+        <v>4</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D22" si="0">IF(C4&gt;=$F$2,$G$2,IF(C4&gt;=$F$3,$G$3,IF(C4&gt;=$F$4,$G$4,IF(C4&gt;=$F$5,$G$5,IF(C4&gt;=$F$6,$G$6,IF(C4&gt;=$F$7,$G$7,IF(C4&gt;=$F$8,$G$8,IF(C4&gt;=$F$9,$G$9,IF(C4&gt;=$F$10,$G$10,IF(C4&gt;$F$11,$G$11,IF(C4=0,$H$11)))))))))))</f>
+        <v xml:space="preserve">A </v>
+      </c>
+      <c r="F4" s="166">
+        <v>3.33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="166">
+        <f>F2</f>
+        <v>4</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">A </v>
+      </c>
+      <c r="F5" s="166">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="166">
+        <f>F2</f>
+        <v>4</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">A </v>
+      </c>
+      <c r="F6" s="166">
+        <v>2.67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="166">
+        <f>F3</f>
+        <v>3.67</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>A-</v>
+      </c>
+      <c r="F7" s="166">
+        <v>2.33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="166">
+        <f>F2</f>
+        <v>4</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">A </v>
+      </c>
+      <c r="F8" s="166">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="163">
+        <v>2185</v>
+      </c>
+      <c r="B9" s="164"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="165"/>
+      <c r="F9" s="166">
+        <v>1.67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="166">
+        <f>F2</f>
+        <v>4</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">A </v>
+      </c>
+      <c r="F10" s="166">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="166">
+        <f>F2</f>
+        <v>4</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">A </v>
+      </c>
+      <c r="F11" s="166">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="166">
+        <f>F5</f>
+        <v>3</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">B </v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="166">
+        <f>F2</f>
+        <v>4</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">A </v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="166">
+        <f>F5</f>
+        <v>3</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">B </v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="163">
+        <v>2191</v>
+      </c>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="165"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="166">
+        <f>F4</f>
+        <v>3.33</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="166">
+        <f>F2</f>
+        <v>4</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">A </v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="166">
+        <f>F4</f>
+        <v>3.33</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="166">
+        <f>F6</f>
+        <v>2.67</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>B-</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="166">
+        <f>F4</f>
+        <v>3.33</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="166">
+        <f>F2</f>
+        <v>4</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">A </v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="166">
+        <f>F7</f>
+        <v>2.33</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="163">
+        <v>2195</v>
+      </c>
+      <c r="B23" s="164"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24">
+        <f>61.92/70</f>
+        <v>0.88457142857142856</v>
+      </c>
+      <c r="C24" s="166">
+        <f>B24*4</f>
+        <v>3.5382857142857143</v>
+      </c>
+      <c r="D24" t="str">
+        <f>IF(C24&gt;=$F$2,G2,IF(C24&gt;=$F$3,$G$3,IF(C24&gt;=$F$4,$G$4,IF(C24&gt;=$F$5,$G$5,IF(C24&gt;=$F$6,$G$6,IF(C24&gt;=$F$7,$G$7,IF(C24&gt;=$F$8,$G$8,IF(C24&gt;=$F$9,$G$9,IF(C24&gt;=$F$10,$G$10,IF(C24&gt;$F$11,$G$11,IF(C24=0,$H$11)))))))))))</f>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25">
+        <f>77.75/80</f>
+        <v>0.97187500000000004</v>
+      </c>
+      <c r="C25" s="166">
+        <f t="shared" ref="C25:C31" si="1">B25*4</f>
+        <v>3.8875000000000002</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" ref="D25:D67" si="2">IF(C25&gt;=$F$2,G3,IF(C25&gt;=$F$3,$G$3,IF(C25&gt;=$F$4,$G$4,IF(C25&gt;=$F$5,$G$5,IF(C25&gt;=$F$6,$G$6,IF(C25&gt;=$F$7,$G$7,IF(C25&gt;=$F$8,$G$8,IF(C25&gt;=$F$9,$G$9,IF(C25&gt;=$F$10,$G$10,IF(C25&gt;$F$11,$G$11,IF(C25=0,$H$11)))))))))))</f>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26">
+        <f>(31.5+9+10)/(10+10+50)</f>
+        <v>0.72142857142857142</v>
+      </c>
+      <c r="C26" s="166">
+        <f t="shared" si="1"/>
+        <v>2.8857142857142857</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>B-</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27">
+        <f>68.8/70</f>
+        <v>0.98285714285714276</v>
+      </c>
+      <c r="C27" s="166">
+        <f t="shared" si="1"/>
+        <v>3.9314285714285711</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28">
+        <f>(14+6)/(20+7)</f>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C28" s="166">
+        <f t="shared" si="1"/>
+        <v>2.9629629629629628</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>B-</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29">
+        <f>(9.5+8.65+16.4+16.4)/(10+10+20+20)</f>
+        <v>0.84916666666666663</v>
+      </c>
+      <c r="C29" s="166">
+        <f t="shared" si="1"/>
+        <v>3.3966666666666665</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30">
+        <f>55.9/65</f>
+        <v>0.86</v>
+      </c>
+      <c r="C30" s="166">
+        <f t="shared" si="1"/>
+        <v>3.44</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31">
+        <f>46.53/60</f>
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="C31" s="166">
+        <f t="shared" si="1"/>
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">B </v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="163">
+        <v>2201</v>
+      </c>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="165"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="163">
+        <v>2211</v>
+      </c>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="165"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A39:D39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>